--- a/data/league_data/france/20/france_shooting.xlsx
+++ b/data/league_data/france/20/france_shooting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3616F329-AFDC-CA40-B611-F2ED562D35B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7E52F-4CCE-0549-B392-470FF72D180F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -793,9 +793,6 @@
     <t>Mounir Chouiar</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Mohamed Simakan</t>
   </si>
   <si>
@@ -1838,12 +1835,15 @@
   </si>
   <si>
     <t>Edmilson Indjai</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2701,14 +2701,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2737,7 +2737,7 @@
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>-2.7</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -11708,7 +11708,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -14385,7 +14385,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -14693,7 +14693,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -15305,12 +15305,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>257</v>
+        <v>605</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>48</v>
@@ -15382,12 +15382,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>30</v>
@@ -15459,12 +15459,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>30</v>
@@ -15536,12 +15536,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>30</v>
@@ -15613,12 +15613,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>30</v>
@@ -15690,15 +15690,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>27</v>
@@ -15765,12 +15765,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>79</v>
@@ -15842,12 +15842,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>182</v>
@@ -15917,12 +15917,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>89</v>
@@ -15994,12 +15994,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>48</v>
@@ -16071,15 +16071,15 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>27</v>
@@ -16148,12 +16148,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>30</v>
@@ -16225,12 +16225,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>30</v>
@@ -16302,12 +16302,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>30</v>
@@ -16379,12 +16379,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>30</v>
@@ -16456,12 +16456,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>26</v>
@@ -16533,15 +16533,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>27</v>
@@ -16610,12 +16610,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>174</v>
@@ -16685,12 +16685,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>30</v>
@@ -16762,15 +16762,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>51</v>
@@ -16839,12 +16839,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>30</v>
@@ -16916,12 +16916,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>182</v>
@@ -16993,15 +16993,15 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>91</v>
@@ -17070,12 +17070,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>30</v>
@@ -17147,12 +17147,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>230</v>
@@ -17224,12 +17224,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>30</v>
@@ -17299,15 +17299,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>27</v>
@@ -17374,12 +17374,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>30</v>
@@ -17451,12 +17451,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>79</v>
@@ -17528,12 +17528,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>30</v>
@@ -17605,12 +17605,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>30</v>
@@ -17682,12 +17682,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>85</v>
@@ -17759,12 +17759,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>30</v>
@@ -17834,12 +17834,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>30</v>
@@ -17911,15 +17911,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>27</v>
@@ -17986,12 +17986,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>89</v>
@@ -18063,12 +18063,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>30</v>
@@ -18140,12 +18140,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>89</v>
@@ -18215,12 +18215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>48</v>
@@ -18292,12 +18292,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>30</v>
@@ -18369,12 +18369,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>71</v>
@@ -18446,12 +18446,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>30</v>
@@ -18521,12 +18521,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>30</v>
@@ -18598,12 +18598,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>30</v>
@@ -18675,12 +18675,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>30</v>
@@ -18750,12 +18750,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>75</v>
@@ -18827,12 +18827,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>30</v>
@@ -18904,12 +18904,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>30</v>
@@ -18981,12 +18981,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>30</v>
@@ -19058,12 +19058,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>30</v>
@@ -19135,15 +19135,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>91</v>
@@ -19212,12 +19212,12 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>30</v>
@@ -19289,12 +19289,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>161</v>
@@ -19366,12 +19366,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>57</v>
@@ -19443,12 +19443,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>30</v>
@@ -19520,12 +19520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>30</v>
@@ -19597,12 +19597,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>30</v>
@@ -19674,12 +19674,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="224" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>79</v>
@@ -19751,12 +19751,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>30</v>
@@ -19828,12 +19828,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>30</v>
@@ -19903,15 +19903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C227" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="C227" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>91</v>
@@ -19980,12 +19980,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>30</v>
@@ -20057,12 +20057,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>101</v>
@@ -20134,12 +20134,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>30</v>
@@ -20211,12 +20211,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>65</v>
@@ -20288,12 +20288,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="232" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>30</v>
@@ -20365,12 +20365,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>30</v>
@@ -20442,12 +20442,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>230</v>
@@ -20519,12 +20519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>101</v>
@@ -20596,12 +20596,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>30</v>
@@ -20673,15 +20673,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>91</v>
@@ -20750,12 +20750,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>30</v>
@@ -20827,12 +20827,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>30</v>
@@ -20902,12 +20902,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>48</v>
@@ -20979,12 +20979,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>71</v>
@@ -21056,15 +21056,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>27</v>
@@ -21133,12 +21133,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>30</v>
@@ -21210,15 +21210,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>27</v>
@@ -21285,12 +21285,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>30</v>
@@ -21362,15 +21362,15 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>91</v>
@@ -21439,12 +21439,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>30</v>
@@ -21516,12 +21516,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>161</v>
@@ -21593,12 +21593,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>30</v>
@@ -21670,12 +21670,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>30</v>
@@ -21747,15 +21747,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>27</v>
@@ -21824,12 +21824,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>79</v>
@@ -21901,12 +21901,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>48</v>
@@ -21968,15 +21968,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C254" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>86</v>
@@ -22045,12 +22045,12 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>89</v>
@@ -22120,12 +22120,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>30</v>
@@ -22197,15 +22197,15 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>91</v>
@@ -22274,12 +22274,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>30</v>
@@ -22351,12 +22351,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>65</v>
@@ -22428,12 +22428,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>71</v>
@@ -22505,12 +22505,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>174</v>
@@ -22582,12 +22582,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>30</v>
@@ -22659,12 +22659,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>161</v>
@@ -22734,12 +22734,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>30</v>
@@ -22809,15 +22809,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>51</v>
@@ -22886,12 +22886,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>30</v>
@@ -22963,12 +22963,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>30</v>
@@ -23040,12 +23040,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>30</v>
@@ -23117,12 +23117,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>26</v>
@@ -23194,12 +23194,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>101</v>
@@ -23271,12 +23271,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>30</v>
@@ -23348,12 +23348,12 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>230</v>
@@ -23425,12 +23425,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>30</v>
@@ -23500,12 +23500,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>30</v>
@@ -23577,12 +23577,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="275" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>161</v>
@@ -23654,12 +23654,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="276" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>30</v>
@@ -23731,12 +23731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>101</v>
@@ -23808,12 +23808,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="278" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>30</v>
@@ -23885,15 +23885,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="279" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>33</v>
@@ -23952,12 +23952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>30</v>
@@ -24029,12 +24029,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="281" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>223</v>
@@ -24106,12 +24106,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="282" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>161</v>
@@ -24183,15 +24183,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="283" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>116</v>
@@ -24260,12 +24260,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>61</v>
@@ -24337,12 +24337,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>30</v>
@@ -24414,12 +24414,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="286" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>30</v>
@@ -24491,12 +24491,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="287" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>30</v>
@@ -24568,12 +24568,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="288" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>101</v>
@@ -24645,12 +24645,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>30</v>
@@ -24722,12 +24722,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>30</v>
@@ -24799,12 +24799,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>30</v>
@@ -24876,15 +24876,15 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="C292" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>27</v>
@@ -24951,12 +24951,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>30</v>
@@ -25028,12 +25028,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>30</v>
@@ -25105,12 +25105,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>125</v>
@@ -25182,12 +25182,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>48</v>
@@ -25257,12 +25257,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>30</v>
@@ -25334,15 +25334,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C298" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>51</v>
@@ -25409,12 +25409,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>48</v>
@@ -25486,15 +25486,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>27</v>
@@ -25561,12 +25561,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>48</v>
@@ -25638,12 +25638,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>71</v>
@@ -25715,12 +25715,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>30</v>
@@ -25790,12 +25790,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>65</v>
@@ -25865,15 +25865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>27</v>
@@ -25942,12 +25942,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>75</v>
@@ -26019,15 +26019,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>27</v>
@@ -26096,12 +26096,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>61</v>
@@ -26173,15 +26173,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>91</v>
@@ -26250,12 +26250,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>30</v>
@@ -26327,12 +26327,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>57</v>
@@ -26404,12 +26404,12 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>30</v>
@@ -26481,12 +26481,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>30</v>
@@ -26558,12 +26558,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="314" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>30</v>
@@ -26633,12 +26633,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>85</v>
@@ -26710,12 +26710,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>79</v>
@@ -26787,12 +26787,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>48</v>
@@ -26864,12 +26864,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>30</v>
@@ -26941,15 +26941,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="319" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>51</v>
@@ -27018,15 +27018,15 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="320" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>136</v>
@@ -27095,12 +27095,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="321" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>65</v>
@@ -27170,12 +27170,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="322" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>30</v>
@@ -27247,12 +27247,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>65</v>
@@ -27324,12 +27324,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="324" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>30</v>
@@ -27399,12 +27399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>30</v>
@@ -27476,12 +27476,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>79</v>
@@ -27543,12 +27543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>168</v>
@@ -27620,12 +27620,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>30</v>
@@ -27697,12 +27697,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>101</v>
@@ -27774,12 +27774,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>45</v>
@@ -27851,12 +27851,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>89</v>
@@ -27928,12 +27928,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>120</v>
@@ -28003,12 +28003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>30</v>
@@ -28078,12 +28078,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>247</v>
@@ -28155,12 +28155,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>30</v>
@@ -28232,12 +28232,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>101</v>
@@ -28309,15 +28309,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>86</v>
@@ -28386,12 +28386,12 @@
         <v>-3.9</v>
       </c>
     </row>
-    <row r="338" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>201</v>
@@ -28463,12 +28463,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="339" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>223</v>
@@ -28538,12 +28538,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="340" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>30</v>
@@ -28613,12 +28613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>30</v>
@@ -28690,12 +28690,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>30</v>
@@ -28767,12 +28767,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="343" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>30</v>
@@ -28842,12 +28842,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>61</v>
@@ -28909,12 +28909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>30</v>
@@ -28986,12 +28986,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="346" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>89</v>
@@ -29061,12 +29061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>30</v>
@@ -29138,12 +29138,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="348" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>30</v>
@@ -29215,12 +29215,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="349" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>30</v>
@@ -29292,12 +29292,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="350" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>230</v>
@@ -29369,12 +29369,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="351" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -29444,12 +29444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>152</v>
@@ -29521,12 +29521,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>152</v>
@@ -29588,12 +29588,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>161</v>
@@ -29665,12 +29665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>156</v>
@@ -29742,12 +29742,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>171</v>
@@ -29819,12 +29819,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="357" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>65</v>
@@ -29896,15 +29896,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="358" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>91</v>
@@ -29973,12 +29973,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>152</v>
@@ -30050,12 +30050,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>30</v>
@@ -30127,12 +30127,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="361" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>30</v>
@@ -30204,12 +30204,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="362" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>161</v>
@@ -30281,12 +30281,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="363" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>71</v>
@@ -30358,15 +30358,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="364" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>91</v>
@@ -30435,15 +30435,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="365" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>27</v>
@@ -30512,12 +30512,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="366" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>30</v>
@@ -30589,12 +30589,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>230</v>
@@ -30664,12 +30664,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>48</v>
@@ -30741,12 +30741,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>30</v>
@@ -30808,12 +30808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>65</v>
@@ -30885,12 +30885,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>89</v>
@@ -30952,12 +30952,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>30</v>
@@ -31029,12 +31029,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>161</v>
@@ -31106,12 +31106,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>30</v>
@@ -31173,12 +31173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>30</v>
@@ -31248,15 +31248,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>86</v>
@@ -31325,12 +31325,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>30</v>
@@ -31400,15 +31400,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>91</v>
@@ -31477,12 +31477,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>30</v>
@@ -31554,12 +31554,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>30</v>
@@ -31631,12 +31631,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>30</v>
@@ -31708,12 +31708,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>30</v>
@@ -31785,12 +31785,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>30</v>
@@ -31862,12 +31862,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>120</v>
@@ -31939,12 +31939,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>101</v>
@@ -32006,12 +32006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>30</v>
@@ -32083,12 +32083,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="387" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>30</v>
@@ -32150,15 +32150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>136</v>
@@ -32227,12 +32227,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>30</v>
@@ -32304,15 +32304,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="390" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>116</v>
@@ -32379,12 +32379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>30</v>
@@ -32446,12 +32446,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>30</v>
@@ -32513,12 +32513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>174</v>
@@ -32580,12 +32580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>71</v>
@@ -32657,12 +32657,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="395" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>57</v>
@@ -32734,12 +32734,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="396" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>30</v>
@@ -32801,12 +32801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>30</v>
@@ -32878,15 +32878,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="398" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>27</v>
@@ -32945,12 +32945,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>30</v>
@@ -33012,12 +33012,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>48</v>
@@ -33087,12 +33087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>48</v>
@@ -33164,12 +33164,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="402" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>30</v>
@@ -33231,7 +33231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -33308,12 +33308,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="404" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>30</v>
@@ -33385,12 +33385,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="405" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>232</v>
@@ -33462,12 +33462,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="406" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>30</v>
@@ -33529,15 +33529,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>86</v>
@@ -33606,12 +33606,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="408" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>30</v>
@@ -33683,12 +33683,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="409" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>48</v>
@@ -33750,12 +33750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>30</v>
@@ -33827,12 +33827,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="411" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>30</v>
@@ -33894,12 +33894,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>48</v>
@@ -33969,12 +33969,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="413" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>48</v>
@@ -34046,12 +34046,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="414" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>30</v>
@@ -34121,12 +34121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>101</v>
@@ -34196,12 +34196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>48</v>
@@ -34271,12 +34271,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="417" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>30</v>
@@ -34346,12 +34346,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="418" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>230</v>
@@ -34423,15 +34423,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="419" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>27</v>
@@ -34490,12 +34490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>30</v>
@@ -34565,12 +34565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>30</v>
@@ -34632,15 +34632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>33</v>
@@ -34699,15 +34699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>33</v>
@@ -34766,12 +34766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>230</v>
@@ -34833,15 +34833,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>33</v>
@@ -34900,12 +34900,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>30</v>
@@ -34975,12 +34975,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>71</v>
@@ -35050,12 +35050,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>30</v>
@@ -35125,12 +35125,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="429" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>30</v>
@@ -35202,12 +35202,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="430" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>101</v>
@@ -35279,12 +35279,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="431" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>177</v>
@@ -35356,12 +35356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>45</v>
@@ -35431,12 +35431,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="433" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>85</v>
@@ -35506,12 +35506,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="434" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>30</v>
@@ -35583,12 +35583,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="435" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>57</v>
@@ -35660,12 +35660,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="436" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>30</v>
@@ -35727,12 +35727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>30</v>
@@ -35794,12 +35794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>30</v>
@@ -35871,15 +35871,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="439" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D439" s="3" t="s">
         <v>51</v>
@@ -35948,12 +35948,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="440" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>101</v>
@@ -36025,12 +36025,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="441" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>30</v>
@@ -36102,12 +36102,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="442" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>30</v>
@@ -36177,12 +36177,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="443" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>30</v>
@@ -36244,12 +36244,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>30</v>
@@ -36319,12 +36319,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="445" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>30</v>
@@ -36386,15 +36386,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>142</v>
@@ -36461,12 +36461,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="447" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>48</v>
@@ -36536,15 +36536,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="448" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>33</v>
@@ -36603,15 +36603,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>558</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>559</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>86</v>
@@ -36680,12 +36680,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="450" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>30</v>
@@ -36747,12 +36747,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>101</v>
@@ -36824,12 +36824,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="452" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>232</v>
@@ -36899,12 +36899,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="453" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>30</v>
@@ -36974,12 +36974,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="454" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>30</v>
@@ -37041,12 +37041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>30</v>
@@ -37116,12 +37116,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="456" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>89</v>
@@ -37193,15 +37193,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="457" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>136</v>
@@ -37270,15 +37270,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="458" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D458" s="3" t="s">
         <v>27</v>
@@ -37345,12 +37345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>61</v>
@@ -37422,12 +37422,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="460" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>30</v>
@@ -37497,12 +37497,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="461" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>30</v>
@@ -37572,12 +37572,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="462" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>30</v>
@@ -37649,12 +37649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>30</v>
@@ -37716,15 +37716,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>27</v>
@@ -37783,12 +37783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>30</v>
@@ -37860,12 +37860,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>127</v>
@@ -37927,12 +37927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>30</v>
@@ -37994,12 +37994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>89</v>
@@ -38061,12 +38061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>30</v>
@@ -38128,15 +38128,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>27</v>
@@ -38195,12 +38195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>61</v>
@@ -38262,12 +38262,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>30</v>
@@ -38329,12 +38329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>30</v>
@@ -38396,12 +38396,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>30</v>
@@ -38463,12 +38463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>79</v>
@@ -38538,12 +38538,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>57</v>
@@ -38615,12 +38615,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>161</v>
@@ -38690,15 +38690,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>136</v>
@@ -38767,12 +38767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>30</v>
@@ -38844,15 +38844,15 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>51</v>
@@ -38919,12 +38919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>79</v>
@@ -38986,12 +38986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>30</v>
@@ -39061,12 +39061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>30</v>
@@ -39136,12 +39136,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>30</v>
@@ -39203,12 +39203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>30</v>
@@ -39270,12 +39270,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>182</v>
@@ -39337,12 +39337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>101</v>
@@ -39404,15 +39404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>86</v>
@@ -39479,12 +39479,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>30</v>
@@ -39546,15 +39546,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>27</v>
@@ -39613,12 +39613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>30</v>
@@ -39690,12 +39690,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>89</v>
@@ -39767,12 +39767,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>75</v>
@@ -39834,12 +39834,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>30</v>
@@ -39901,12 +39901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>161</v>
@@ -39958,12 +39958,12 @@
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
     </row>
-    <row r="496" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>30</v>
@@ -40025,12 +40025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>30</v>
@@ -40092,12 +40092,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>30</v>
@@ -40159,12 +40159,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>30</v>
@@ -40226,12 +40226,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>223</v>
@@ -40293,7 +40293,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/20/france_shooting.xlsx
+++ b/data/league_data/france/20/france_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F7E52F-4CCE-0549-B392-470FF72D180F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42479E11-E686-6E4F-AE0D-71062453D5E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,9 +1294,6 @@
     <t>Xeka</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Anthony Caci</t>
   </si>
   <si>
@@ -1838,6 +1835,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2704,8 +2704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15310,7 +15310,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>48</v>
@@ -26792,7 +26792,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>424</v>
+        <v>605</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>48</v>
@@ -26869,7 +26869,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>30</v>
@@ -26946,7 +26946,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>385</v>
@@ -27023,10 +27023,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>136</v>
@@ -27100,7 +27100,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>65</v>
@@ -27175,7 +27175,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>30</v>
@@ -27252,7 +27252,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>65</v>
@@ -27329,7 +27329,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>30</v>
@@ -27404,7 +27404,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>30</v>
@@ -27481,7 +27481,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>79</v>
@@ -27548,7 +27548,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>168</v>
@@ -27625,7 +27625,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>30</v>
@@ -27702,7 +27702,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>101</v>
@@ -27779,7 +27779,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>45</v>
@@ -27856,7 +27856,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>89</v>
@@ -27933,7 +27933,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>120</v>
@@ -28008,7 +28008,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>30</v>
@@ -28083,7 +28083,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>247</v>
@@ -28237,7 +28237,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>101</v>
@@ -28314,7 +28314,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>395</v>
@@ -28391,7 +28391,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>201</v>
@@ -28468,7 +28468,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>223</v>
@@ -28543,7 +28543,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>30</v>
@@ -28618,7 +28618,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>30</v>
@@ -28695,7 +28695,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>30</v>
@@ -28772,7 +28772,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>30</v>
@@ -28847,7 +28847,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>61</v>
@@ -28914,7 +28914,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>30</v>
@@ -28991,7 +28991,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>89</v>
@@ -29066,7 +29066,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>30</v>
@@ -29220,7 +29220,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>30</v>
@@ -29297,7 +29297,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>230</v>
@@ -29374,7 +29374,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>26</v>
@@ -29449,7 +29449,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>152</v>
@@ -29526,7 +29526,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>152</v>
@@ -29593,7 +29593,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>161</v>
@@ -29670,7 +29670,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>156</v>
@@ -29747,7 +29747,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>171</v>
@@ -29824,7 +29824,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>65</v>
@@ -29901,7 +29901,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>413</v>
@@ -29978,7 +29978,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>152</v>
@@ -30055,7 +30055,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>30</v>
@@ -30132,7 +30132,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>30</v>
@@ -30209,7 +30209,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>161</v>
@@ -30286,7 +30286,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>71</v>
@@ -30363,10 +30363,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>91</v>
@@ -30440,7 +30440,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>385</v>
@@ -30517,7 +30517,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>30</v>
@@ -30594,7 +30594,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>230</v>
@@ -30669,7 +30669,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>48</v>
@@ -30746,7 +30746,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>30</v>
@@ -30813,7 +30813,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>65</v>
@@ -30890,7 +30890,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>89</v>
@@ -30957,7 +30957,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>30</v>
@@ -31034,7 +31034,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>161</v>
@@ -31111,7 +31111,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>30</v>
@@ -31178,7 +31178,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>30</v>
@@ -31253,10 +31253,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C376" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>86</v>
@@ -31330,7 +31330,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>30</v>
@@ -31405,10 +31405,10 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="D378" s="3" t="s">
         <v>91</v>
@@ -31482,7 +31482,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>30</v>
@@ -31559,7 +31559,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>30</v>
@@ -31636,7 +31636,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>30</v>
@@ -31713,7 +31713,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>30</v>
@@ -31790,7 +31790,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>30</v>
@@ -31867,7 +31867,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>120</v>
@@ -31944,7 +31944,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>101</v>
@@ -32011,7 +32011,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>30</v>
@@ -32088,7 +32088,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>30</v>
@@ -32155,7 +32155,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>268</v>
@@ -32232,7 +32232,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>30</v>
@@ -32309,10 +32309,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>116</v>
@@ -32384,7 +32384,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>30</v>
@@ -32451,7 +32451,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>30</v>
@@ -32518,7 +32518,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>174</v>
@@ -32585,7 +32585,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>71</v>
@@ -32662,7 +32662,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>57</v>
@@ -32739,7 +32739,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>30</v>
@@ -32806,7 +32806,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>30</v>
@@ -32883,7 +32883,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>275</v>
@@ -32950,7 +32950,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>30</v>
@@ -33017,7 +33017,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>48</v>
@@ -33092,7 +33092,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>48</v>
@@ -33169,7 +33169,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>30</v>
@@ -33313,7 +33313,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>30</v>
@@ -33390,7 +33390,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>232</v>
@@ -33467,7 +33467,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>30</v>
@@ -33534,10 +33534,10 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C407" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>86</v>
@@ -33611,7 +33611,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>30</v>
@@ -33688,7 +33688,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>48</v>
@@ -33755,7 +33755,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>30</v>
@@ -33832,7 +33832,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>30</v>
@@ -33899,7 +33899,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>48</v>
@@ -33974,7 +33974,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>48</v>
@@ -34051,7 +34051,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>30</v>
@@ -34126,7 +34126,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>101</v>
@@ -34201,7 +34201,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>48</v>
@@ -34276,7 +34276,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>30</v>
@@ -34351,7 +34351,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>230</v>
@@ -34428,7 +34428,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>268</v>
@@ -34495,7 +34495,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>30</v>
@@ -34570,7 +34570,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>30</v>
@@ -34637,7 +34637,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>395</v>
@@ -34704,10 +34704,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>33</v>
@@ -34771,7 +34771,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>230</v>
@@ -34838,10 +34838,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C425" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="C425" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>33</v>
@@ -34980,7 +34980,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>71</v>
@@ -35055,7 +35055,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>30</v>
@@ -35130,7 +35130,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>30</v>
@@ -35207,7 +35207,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>101</v>
@@ -35284,7 +35284,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>177</v>
@@ -35361,7 +35361,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>45</v>
@@ -35436,7 +35436,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>85</v>
@@ -35511,7 +35511,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>30</v>
@@ -35588,7 +35588,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>57</v>
@@ -35665,7 +35665,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>30</v>
@@ -35732,7 +35732,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>30</v>
@@ -35799,7 +35799,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>30</v>
@@ -35876,7 +35876,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>354</v>
@@ -35953,7 +35953,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>101</v>
@@ -36030,7 +36030,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>30</v>
@@ -36107,7 +36107,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>30</v>
@@ -36182,7 +36182,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>30</v>
@@ -36249,7 +36249,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>30</v>
@@ -36324,7 +36324,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>30</v>
@@ -36391,7 +36391,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>336</v>
@@ -36466,7 +36466,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>48</v>
@@ -36541,7 +36541,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>405</v>
@@ -36608,10 +36608,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>86</v>
@@ -36685,7 +36685,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>30</v>
@@ -36752,7 +36752,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>101</v>
@@ -36829,7 +36829,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>232</v>
@@ -36904,7 +36904,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>30</v>
@@ -36979,7 +36979,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>30</v>
@@ -37046,7 +37046,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>30</v>
@@ -37121,7 +37121,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>89</v>
@@ -37198,7 +37198,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>336</v>
@@ -37275,7 +37275,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>283</v>
@@ -37350,7 +37350,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>61</v>
@@ -37427,7 +37427,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>30</v>
@@ -37502,7 +37502,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>30</v>
@@ -37577,7 +37577,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>30</v>
@@ -37654,7 +37654,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>30</v>
@@ -37721,7 +37721,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>279</v>
@@ -37788,7 +37788,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>30</v>
@@ -37865,7 +37865,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>127</v>
@@ -37932,7 +37932,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>30</v>
@@ -37999,7 +37999,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>89</v>
@@ -38066,7 +38066,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>30</v>
@@ -38133,10 +38133,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>27</v>
@@ -38200,7 +38200,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>61</v>
@@ -38267,7 +38267,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>30</v>
@@ -38334,7 +38334,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>30</v>
@@ -38401,7 +38401,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>30</v>
@@ -38468,7 +38468,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>79</v>
@@ -38543,7 +38543,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>57</v>
@@ -38620,7 +38620,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>161</v>
@@ -38695,7 +38695,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>413</v>
@@ -38849,10 +38849,10 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>51</v>
@@ -38924,7 +38924,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>79</v>
@@ -38991,7 +38991,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>30</v>
@@ -39066,7 +39066,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>30</v>
@@ -39141,7 +39141,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>30</v>
@@ -39208,7 +39208,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>30</v>
@@ -39275,7 +39275,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>182</v>
@@ -39342,7 +39342,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>101</v>
@@ -39409,7 +39409,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>354</v>
@@ -39484,7 +39484,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>30</v>
@@ -39551,7 +39551,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>395</v>
@@ -39695,7 +39695,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>89</v>
@@ -39772,7 +39772,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>75</v>
@@ -39839,7 +39839,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>30</v>
@@ -39906,7 +39906,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>161</v>
@@ -39963,7 +39963,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>30</v>
@@ -40030,7 +40030,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>30</v>
@@ -40097,7 +40097,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>30</v>
@@ -40164,7 +40164,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>30</v>
@@ -40231,7 +40231,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>223</v>
